--- a/Pandas/hdqweight.xlsx
+++ b/Pandas/hdqweight.xlsx
@@ -132,13 +132,13 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:B194"/>
+  <dimension ref="A1:B197"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A168" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B195" activeCellId="0" sqref="B195"/>
+      <selection pane="topLeft" activeCell="B198" activeCellId="0" sqref="B198"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.55078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="10.87"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="7.09"/>
@@ -1172,6 +1172,24 @@
       </c>
       <c r="B194" s="0" t="n">
         <v>162.5</v>
+      </c>
+    </row>
+    <row r="195" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A195" s="2" t="n">
+        <v>43901</v>
+      </c>
+    </row>
+    <row r="196" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A196" s="2" t="n">
+        <v>43902</v>
+      </c>
+    </row>
+    <row r="197" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A197" s="2" t="n">
+        <v>43903</v>
+      </c>
+      <c r="B197" s="0" t="n">
+        <v>165.5</v>
       </c>
     </row>
   </sheetData>
